--- a/resources/experiment 1/metrics/R2/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Macroalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9976540825496786</v>
+        <v>0.9976881759438693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9976540825496786</v>
+        <v>0.9977081588213691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976540825496786</v>
+        <v>0.9975001834993759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9978172116397571</v>
+        <v>0.9973570029753196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978172116397571</v>
+        <v>0.9974613023883855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9978172116397571</v>
+        <v>0.9974807931223996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9874012170228723</v>
+        <v>0.9979699599778442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9874012170228723</v>
+        <v>0.9980309405920186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9874012170228723</v>
+        <v>0.9979966486923662</v>
       </c>
     </row>
   </sheetData>
